--- a/supportdoc/DeploymentFwInDorm.xlsx
+++ b/supportdoc/DeploymentFwInDorm.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Company Name</t>
   </si>
@@ -82,15 +82,9 @@
     <t>Staying in dormitories &amp; working onsite</t>
   </si>
   <si>
-    <t xml:space="preserve">Please note that this form is for companies with the need to deploy foreign workers onsite. </t>
-  </si>
-  <si>
     <t>Do I need to deploy foreign workers onsite?</t>
   </si>
   <si>
-    <t>Are the workers staying in dormitories?</t>
-  </si>
-  <si>
     <t>Options</t>
   </si>
   <si>
@@ -107,16 +101,25 @@
   </si>
   <si>
     <t>Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Others are defined as Companies who do not hire Marine shipyard account. </t>
   </si>
   <si>
     <t xml:space="preserve">No. of *workers from 
 specified dormitory </t>
   </si>
   <si>
-    <t>* Please indicate the additional manpower onsite if the company has an existing General Exemption</t>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>Others are defined as entities with no Marine Shipyard Work Permit Online (WPOL) accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please note that this form is for companies who has a need to deploy foreign workers onsite. </t>
+  </si>
+  <si>
+    <t>Are the forign workers staying in dormitories?</t>
+  </si>
+  <si>
+    <t>* If your company already have a General Exemption, you will only need to indicate the additional foreign manpower deployment required</t>
   </si>
 </sst>
 </file>
@@ -322,23 +325,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -360,6 +351,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V33"/>
+  <dimension ref="B1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -721,7 +724,7 @@
     </row>
     <row r="3" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" s="15"/>
       <c r="P3" s="6"/>
@@ -743,12 +746,12 @@
       <c r="V4" s="6"/>
     </row>
     <row r="5" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25" t="s">
-        <v>22</v>
+      <c r="C5" s="33"/>
+      <c r="D5" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -759,13 +762,13 @@
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="24"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -775,13 +778,13 @@
       <c r="U6" s="6"/>
     </row>
     <row r="7" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="24"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -791,57 +794,73 @@
       <c r="U7" s="6"/>
     </row>
     <row r="8" spans="2:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>25</v>
       </c>
       <c r="O8" s="2"/>
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
       <c r="O9" s="2"/>
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="2:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="B10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="33" t="s">
-        <v>23</v>
+      <c r="B10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="O10" s="2"/>
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="16"/>
       <c r="O11" s="2"/>
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B12" s="18"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B15" s="19" t="s">
+      <c r="B12" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="2:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -849,28 +868,21 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="2:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>7</v>
@@ -878,11 +890,10 @@
       <c r="D17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B18" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>7</v>
@@ -893,7 +904,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B19" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>7</v>
@@ -904,7 +915,7 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>7</v>
@@ -915,7 +926,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B21" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>7</v>
@@ -926,7 +937,7 @@
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B22" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>7</v>
@@ -936,15 +947,9 @@
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B23" s="14">
-        <v>7</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
@@ -952,9 +957,11 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="O25" s="2"/>
+      <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
@@ -992,43 +999,42 @@
       <c r="V30" s="3"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="O31" s="2"/>
-      <c r="V31" s="3"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$C$3:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C8</xm:sqref>
+          <xm:sqref>C8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$D$3:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C9:C10</xm:sqref>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$D$3:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1041,7 +1047,7 @@
   <dimension ref="C2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.35">
@@ -1062,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.35">
@@ -1070,17 +1076,20 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>13</v>
       </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
